--- a/data/baseCDC.xlsx
+++ b/data/baseCDC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\gfmco\Projects\TrabalhoExperimental\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E566206-5504-49EE-A802-3D3FAE7BEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFDB17-D6A4-4382-B5A7-E621F87094C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="1545" windowWidth="21585" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas do Formulário 1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>ano_ingresso</t>
-  </si>
-  <si>
-    <t>ensino</t>
   </si>
   <si>
     <t>formato_ensino</t>
@@ -136,14 +133,16 @@
   <si>
     <t>numero_acertos</t>
   </si>
+  <si>
+    <t>tratamento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ am/pm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -193,7 +192,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -418,7 +417,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -426,8 +425,7 @@
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="16" width="3" bestFit="1" customWidth="1"/>
@@ -451,84 +449,84 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>24</v>
@@ -537,10 +535,10 @@
         <v>2017</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F26" si="0">SUM(H2:AA2)</f>
@@ -618,7 +616,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>25</v>
@@ -627,10 +625,10 @@
         <v>2016</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
@@ -708,7 +706,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>26</v>
@@ -717,10 +715,10 @@
         <v>2016</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
@@ -798,7 +796,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -807,10 +805,10 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
@@ -888,7 +886,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>22</v>
@@ -897,10 +895,10 @@
         <v>2018</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
@@ -978,7 +976,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>22</v>
@@ -987,10 +985,10 @@
         <v>2018</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
@@ -1068,7 +1066,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>24</v>
@@ -1077,10 +1075,10 @@
         <v>2018</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
@@ -1158,7 +1156,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>21</v>
@@ -1167,10 +1165,10 @@
         <v>2020</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
@@ -1248,7 +1246,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>20</v>
@@ -1257,10 +1255,10 @@
         <v>2020</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
@@ -1338,7 +1336,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>20</v>
@@ -1347,10 +1345,10 @@
         <v>2020</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
@@ -1428,7 +1426,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>20</v>
@@ -1437,10 +1435,10 @@
         <v>2020</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
@@ -1518,7 +1516,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>21</v>
@@ -1527,10 +1525,10 @@
         <v>2020</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
@@ -1608,7 +1606,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>20</v>
@@ -1617,10 +1615,10 @@
         <v>2021</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
@@ -1698,7 +1696,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>19</v>
@@ -1707,10 +1705,10 @@
         <v>2021</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
@@ -1788,7 +1786,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>19</v>
@@ -1797,10 +1795,10 @@
         <v>2021</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
@@ -1878,7 +1876,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>19</v>
@@ -1887,10 +1885,10 @@
         <v>2021</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
@@ -1968,7 +1966,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1">
         <v>20</v>
@@ -1977,10 +1975,10 @@
         <v>2020</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
@@ -2058,7 +2056,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
         <v>22</v>
@@ -2067,10 +2065,10 @@
         <v>2018</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
@@ -2148,7 +2146,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1">
         <v>20</v>
@@ -2157,10 +2155,10 @@
         <v>2020</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
@@ -2238,7 +2236,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
         <v>21</v>
@@ -2247,10 +2245,10 @@
         <v>2020</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
@@ -2328,7 +2326,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
         <v>23</v>
@@ -2337,10 +2335,10 @@
         <v>2018</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
@@ -2418,7 +2416,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
         <v>23</v>
@@ -2427,10 +2425,10 @@
         <v>2016</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
@@ -2508,7 +2506,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
         <v>22</v>
@@ -2517,10 +2515,10 @@
         <v>2019</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
@@ -2598,7 +2596,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
         <v>30</v>
@@ -2607,10 +2605,10 @@
         <v>2018</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
@@ -2688,7 +2686,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1">
         <v>26</v>
@@ -2697,10 +2695,10 @@
         <v>2018</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>

--- a/data/baseCDC.xlsx
+++ b/data/baseCDC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\gfmco\Projects\TrabalhoExperimental\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFDB17-D6A4-4382-B5A7-E621F87094C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C834C48F-B17E-4C62-B170-95C3E2406A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas do Formulário 1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Sem música</t>
-  </si>
-  <si>
-    <t>Remota</t>
   </si>
   <si>
     <t>Feminino</t>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>tratamento</t>
+  </si>
+  <si>
+    <t>Remoto</t>
   </si>
 </sst>
 </file>
@@ -416,8 +416,8 @@
   <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -449,73 +449,73 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>5</v>
@@ -805,7 +805,7 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -1165,7 +1165,7 @@
         <v>2020</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>20</v>
@@ -1255,7 +1255,7 @@
         <v>2020</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1345,7 +1345,7 @@
         <v>2020</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1435,7 +1435,7 @@
         <v>2020</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -1525,7 +1525,7 @@
         <v>2020</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>20</v>
@@ -1615,7 +1615,7 @@
         <v>2021</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>19</v>
@@ -1705,7 +1705,7 @@
         <v>2021</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1">
         <v>19</v>
@@ -1795,7 +1795,7 @@
         <v>2021</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
         <v>19</v>
@@ -1885,7 +1885,7 @@
         <v>2021</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -1975,7 +1975,7 @@
         <v>2020</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>20</v>
@@ -2155,7 +2155,7 @@
         <v>2020</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -2245,7 +2245,7 @@
         <v>2020</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
